--- a/server/files/template.xlsx
+++ b/server/files/template.xlsx
@@ -2,39 +2,229 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ubuntu\Evotor\Helper\server\files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="993"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>Тест</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Название товара
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(обязательное поле)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Код товара
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(до 10 символов)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Артикул</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 
+(до 20 символов)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Штрихкоды</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  
+(Если оставить штрихкоды пустыми, в терминале будет доступен только визуальный поиск товара)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Отпускная цена</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (обязательное поле)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Закупочная цена
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(обязательное поле)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Ставка НДС 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(два символа через пробел: 
+% (0 – Без НДС)
+“с” - “с рачсетной ставкой”/”н” - “Без”)</t>
+    </r>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Пример</t>
+  </si>
+  <si>
+    <t>Артикул123456789</t>
+  </si>
+  <si>
+    <t>Какой-то штрихкод</t>
+  </si>
+  <si>
+    <t>18.00</t>
+  </si>
+  <si>
+    <t>123.20</t>
+  </si>
+  <si>
+    <t>0 б</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -57,8 +247,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -339,29 +535,76 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.7109375"/>
+    <col min="2" max="2" width="20.28515625"/>
+    <col min="3" max="3" width="23.7109375"/>
+    <col min="4" max="4" width="38.28515625"/>
+    <col min="5" max="5" width="17"/>
+    <col min="6" max="6" width="16"/>
+    <col min="7" max="7" width="31.140625"/>
+    <col min="8" max="1025" width="8.5703125"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1">
+      <c r="D1" s="1" t="s">
         <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>1234567890</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
--- a/server/files/template.xlsx
+++ b/server/files/template.xlsx
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
   <si>
     <t>Номер товара</t>
   </si>
@@ -157,39 +157,6 @@
     <t>Пример: яблоки красные</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Обязательное</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF313739"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>поле</t>
-    </r>
-  </si>
-  <si>
     <t>Необязательное поле</t>
   </si>
   <si>
@@ -217,11 +184,6 @@
   </si>
   <si>
     <t>Обязательное поле</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Заполняются все поля 
-От A до P
-</t>
   </si>
   <si>
     <t>Например: 140.30</t>
@@ -234,185 +196,11 @@
     <t>Например: 2.000</t>
   </si>
   <si>
-    <t>Например: “обычный”</t>
-  </si>
-  <si>
     <t>Например: 8 с
 Например: Без</t>
   </si>
   <si>
     <t>Например: шт</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Обязательное поле
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>"шт" – штуки
-"кг" – килограммы
-"л" – литры
-"м" -метры
-"км" – километры
-"м2" – вадратные метры
-"м3" – кубичские метры
-"компл" – комплекты
-"упак" – упаковки
-"ед" - единицы
-"дроб" -  доробное</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Обязательное поле
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Введите 2 символа через пробел</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF1C1C1C"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-Первый символ - %:
- Без – Без НДС
-0 — 0% НДС
-18 — 18% НДС
-10 — 10% НДС
-Второй символ - ставка:
-“с” (буква алфавита) - “С рачсетной ставкой”
-”б” (буква алфавита)- “Без расчетной ставки</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF1C1C1C"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">”
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
-    <t>Например: Да</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Обязательное поле
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>“Да”/”Нет”</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Обязательное поле</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF313739"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6.4"/>
-        <color rgb="FF313739"/>
-        <rFont val="Ubuntu"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF313739"/>
-        <rFont val="Ubuntu"/>
-        <charset val="1"/>
-      </rPr>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF111111"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">обычный"
-или
-”маркированный алкоголь”
-или
-”немаркированный алкоголь"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-Вводить без ковычек</t>
-    </r>
   </si>
   <si>
     <t>Например: Код,ДругойКод</t>
@@ -474,10 +262,959 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">Обязательное поле
+</t>
+    </r>
+    <r>
       <rPr>
         <b/>
-        <sz val="11"/>
-        <color theme="1"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Количество товара в наличии (остаток)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>До 3 знаков в дробной части</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Обязательное поле,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">если выбрана алкогольная продукция
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="6.4"/>
+        <color rgb="FF000000"/>
+        <rFont val="Ubuntu"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Для алкоголя - в диапазоне 
+от 1 до 999</t>
+    </r>
+  </si>
+  <si>
+    <t>Например: нет</t>
+  </si>
+  <si>
+    <t>Например: "маркированный алкоголь"</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Заполняются все
+столбцы формы
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+Столбец для нумерации Ваших товаров</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Обязательное поле
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Введите 2 символа через пробел</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1C1C1C"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Первый символ - %:
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Без</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> – Без НДС
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> — 0% НДС
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>18</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> — 18% НДС
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> — 10% НДС
+Второй символ - ставка:
+“</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>с</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>” (буква алфавита) - “С рачсетной ставкой”
+”</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>б</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>” (буква алфавита)- “Без расчетной ставки</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1C1C1C"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Вводить без ковычек</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Обязательное поле
+По умолчанию - "обычный"</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Если тип Вашего товара</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Ubuntu"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">обычный",
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">то оставьте поле пустым
+Иначе введите одно из двух представленных
+значений
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>”</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>маркированный алкоголь</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+или
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>”</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>немаркированный алкоголь</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Вводить без ковычек</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Обязательное поле
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Вводить без ковычек</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>шт</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>" – штуки
+"</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>кг</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>" – килограммы
+"</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>л</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>" – литры
+"</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>м</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"  – метры
+"</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>км</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>" – километры
+"</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>м2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>" – вадратные метры
+"</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>м3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>" – кубичские метры
+"</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>компл</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>" – комплекты
+"</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>упак</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>" – упаковки
+"</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>ед</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>" - единицы
+"</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>дроб</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>" -  доробное</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Обязательное поле
+По умолчанию выставлено "да"
+Если Ваш товар не доступен для продажи, то оставьте поле пустым
+Если Ваш товар не доступен для продажи поставьте значение
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>нет</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Вводить без ковычек</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Обязательное поле,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>если выбрана алкогольная продукция</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="6.4"/>
+        <color rgb="FF000000"/>
+        <rFont val="Ubuntu"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>До 3 знаков в дробной части</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Для алкоголя - в диапазоне от 0.001 до 99.999.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
         <charset val="204"/>
@@ -512,175 +1249,12 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
         <charset val="204"/>
       </rPr>
       <t>Если их несколько перечислите их через запятую без пробела</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Обязательное поле
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">Количество товара в наличии (остаток)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>До 3 знаков в дробной части</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Обязательное поле,
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">если выбрана алкогольная продукция
- </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="6.4"/>
-        <color rgb="FF000000"/>
-        <rFont val="Ubuntu"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Для алкоголя - в диапазоне 
-от 1 до 999</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Обязательное поле,
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>если выбрана алкогольная продукция</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">
- </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="6.4"/>
-        <color rgb="FF000000"/>
-        <rFont val="Ubuntu"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>До 3 знаков в дробной части</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">
- </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Для алкоголя - в диапазоне от 0.001 до 99.999.</t>
     </r>
   </si>
 </sst>
@@ -688,7 +1262,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="25">
+  <fonts count="22">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -722,12 +1296,6 @@
       <color rgb="FF313739"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="6.4"/>
-      <color rgb="FF313739"/>
-      <name val="Ubuntu"/>
       <charset val="1"/>
     </font>
     <font>
@@ -790,44 +1358,8 @@
       <charset val="204"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF313739"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF313739"/>
-      <name val="Ubuntu"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF111111"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
@@ -870,6 +1402,27 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Ubuntu"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -891,7 +1444,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -915,19 +1468,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="centerContinuous" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="centerContinuous" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="centerContinuous" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="centerContinuous" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="centerContinuous" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="centerContinuous" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -939,7 +1489,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
@@ -1017,6 +1567,9 @@
       <rgbColor rgb="00333399"/>
       <rgbColor rgb="00333333"/>
     </indexedColors>
+    <mruColors>
+      <color rgb="FFFF0000"/>
+    </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1297,80 +1850,75 @@
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
+      <selection pane="bottomLeft" activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="36.28515625" style="2"/>
-    <col min="2" max="2" width="36.28515625" style="1"/>
-    <col min="3" max="4" width="27.85546875" style="1"/>
-    <col min="5" max="5" width="29" style="1"/>
-    <col min="6" max="6" width="54.42578125" style="1"/>
-    <col min="7" max="7" width="25.28515625" style="1"/>
-    <col min="8" max="8" width="24.140625" style="1"/>
-    <col min="9" max="9" width="38.42578125" style="1"/>
+    <col min="1" max="1" width="36.7109375" style="2" customWidth="1"/>
+    <col min="2" max="5" width="36.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="54.42578125" style="1" customWidth="1"/>
+    <col min="7" max="8" width="25.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="38.42578125" style="1" customWidth="1"/>
     <col min="10" max="10" width="47.5703125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="34.140625" style="1"/>
-    <col min="12" max="14" width="33.42578125" style="1"/>
-    <col min="15" max="15" width="33.5703125" style="1"/>
-    <col min="16" max="16" width="33.7109375" style="1"/>
+    <col min="11" max="11" width="45.5703125" style="1" customWidth="1"/>
+    <col min="12" max="16" width="33.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="40.85546875" style="1" customWidth="1"/>
-    <col min="18" max="257" width="11.28515625" style="1"/>
-    <col min="258" max="1024" width="11.28515625" style="2"/>
+    <col min="18" max="257" width="9.140625" style="1"/>
+    <col min="258" max="1024" width="9.140625" style="2"/>
     <col min="1025" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1024" s="18" customFormat="1" ht="58.5" customHeight="1">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:1024" s="17" customFormat="1" ht="58.5" customHeight="1">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="K1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="15" t="s">
+      <c r="L1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="15" t="s">
+      <c r="M1" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="15" t="s">
+      <c r="N1" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="15" t="s">
+      <c r="O1" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="15" t="s">
+      <c r="P1" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="16" t="s">
+      <c r="Q1" s="15" t="s">
         <v>16</v>
       </c>
       <c r="R1" s="4"/>
@@ -1596,831 +2144,831 @@
       <c r="ID1" s="4"/>
       <c r="IE1" s="4"/>
       <c r="IF1" s="4"/>
-      <c r="IG1" s="17"/>
-      <c r="IH1" s="17"/>
-      <c r="II1" s="17"/>
-      <c r="IJ1" s="17"/>
-      <c r="IK1" s="17"/>
-      <c r="IL1" s="17"/>
-      <c r="IM1" s="17"/>
-      <c r="IN1" s="17"/>
-      <c r="IO1" s="17"/>
-      <c r="IP1" s="17"/>
-      <c r="IQ1" s="17"/>
-      <c r="IR1" s="17"/>
-      <c r="IS1" s="17"/>
-      <c r="IT1" s="17"/>
-      <c r="IU1" s="17"/>
-      <c r="IV1" s="17"/>
-      <c r="IW1" s="17"/>
-      <c r="IX1" s="17"/>
-      <c r="IY1" s="17"/>
-      <c r="IZ1" s="17"/>
-      <c r="JA1" s="17"/>
-      <c r="JB1" s="17"/>
-      <c r="JC1" s="17"/>
-      <c r="JD1" s="17"/>
-      <c r="JE1" s="17"/>
-      <c r="JF1" s="17"/>
-      <c r="JG1" s="17"/>
-      <c r="JH1" s="17"/>
-      <c r="JI1" s="17"/>
-      <c r="JJ1" s="17"/>
-      <c r="JK1" s="17"/>
-      <c r="JL1" s="17"/>
-      <c r="JM1" s="17"/>
-      <c r="JN1" s="17"/>
-      <c r="JO1" s="17"/>
-      <c r="JP1" s="17"/>
-      <c r="JQ1" s="17"/>
-      <c r="JR1" s="17"/>
-      <c r="JS1" s="17"/>
-      <c r="JT1" s="17"/>
-      <c r="JU1" s="17"/>
-      <c r="JV1" s="17"/>
-      <c r="JW1" s="17"/>
-      <c r="JX1" s="17"/>
-      <c r="JY1" s="17"/>
-      <c r="JZ1" s="17"/>
-      <c r="KA1" s="17"/>
-      <c r="KB1" s="17"/>
-      <c r="KC1" s="17"/>
-      <c r="KD1" s="17"/>
-      <c r="KE1" s="17"/>
-      <c r="KF1" s="17"/>
-      <c r="KG1" s="17"/>
-      <c r="KH1" s="17"/>
-      <c r="KI1" s="17"/>
-      <c r="KJ1" s="17"/>
-      <c r="KK1" s="17"/>
-      <c r="KL1" s="17"/>
-      <c r="KM1" s="17"/>
-      <c r="KN1" s="17"/>
-      <c r="KO1" s="17"/>
-      <c r="KP1" s="17"/>
-      <c r="KQ1" s="17"/>
-      <c r="KR1" s="17"/>
-      <c r="KS1" s="17"/>
-      <c r="KT1" s="17"/>
-      <c r="KU1" s="17"/>
-      <c r="KV1" s="17"/>
-      <c r="KW1" s="17"/>
-      <c r="KX1" s="17"/>
-      <c r="KY1" s="17"/>
-      <c r="KZ1" s="17"/>
-      <c r="LA1" s="17"/>
-      <c r="LB1" s="17"/>
-      <c r="LC1" s="17"/>
-      <c r="LD1" s="17"/>
-      <c r="LE1" s="17"/>
-      <c r="LF1" s="17"/>
-      <c r="LG1" s="17"/>
-      <c r="LH1" s="17"/>
-      <c r="LI1" s="17"/>
-      <c r="LJ1" s="17"/>
-      <c r="LK1" s="17"/>
-      <c r="LL1" s="17"/>
-      <c r="LM1" s="17"/>
-      <c r="LN1" s="17"/>
-      <c r="LO1" s="17"/>
-      <c r="LP1" s="17"/>
-      <c r="LQ1" s="17"/>
-      <c r="LR1" s="17"/>
-      <c r="LS1" s="17"/>
-      <c r="LT1" s="17"/>
-      <c r="LU1" s="17"/>
-      <c r="LV1" s="17"/>
-      <c r="LW1" s="17"/>
-      <c r="LX1" s="17"/>
-      <c r="LY1" s="17"/>
-      <c r="LZ1" s="17"/>
-      <c r="MA1" s="17"/>
-      <c r="MB1" s="17"/>
-      <c r="MC1" s="17"/>
-      <c r="MD1" s="17"/>
-      <c r="ME1" s="17"/>
-      <c r="MF1" s="17"/>
-      <c r="MG1" s="17"/>
-      <c r="MH1" s="17"/>
-      <c r="MI1" s="17"/>
-      <c r="MJ1" s="17"/>
-      <c r="MK1" s="17"/>
-      <c r="ML1" s="17"/>
-      <c r="MM1" s="17"/>
-      <c r="MN1" s="17"/>
-      <c r="MO1" s="17"/>
-      <c r="MP1" s="17"/>
-      <c r="MQ1" s="17"/>
-      <c r="MR1" s="17"/>
-      <c r="MS1" s="17"/>
-      <c r="MT1" s="17"/>
-      <c r="MU1" s="17"/>
-      <c r="MV1" s="17"/>
-      <c r="MW1" s="17"/>
-      <c r="MX1" s="17"/>
-      <c r="MY1" s="17"/>
-      <c r="MZ1" s="17"/>
-      <c r="NA1" s="17"/>
-      <c r="NB1" s="17"/>
-      <c r="NC1" s="17"/>
-      <c r="ND1" s="17"/>
-      <c r="NE1" s="17"/>
-      <c r="NF1" s="17"/>
-      <c r="NG1" s="17"/>
-      <c r="NH1" s="17"/>
-      <c r="NI1" s="17"/>
-      <c r="NJ1" s="17"/>
-      <c r="NK1" s="17"/>
-      <c r="NL1" s="17"/>
-      <c r="NM1" s="17"/>
-      <c r="NN1" s="17"/>
-      <c r="NO1" s="17"/>
-      <c r="NP1" s="17"/>
-      <c r="NQ1" s="17"/>
-      <c r="NR1" s="17"/>
-      <c r="NS1" s="17"/>
-      <c r="NT1" s="17"/>
-      <c r="NU1" s="17"/>
-      <c r="NV1" s="17"/>
-      <c r="NW1" s="17"/>
-      <c r="NX1" s="17"/>
-      <c r="NY1" s="17"/>
-      <c r="NZ1" s="17"/>
-      <c r="OA1" s="17"/>
-      <c r="OB1" s="17"/>
-      <c r="OC1" s="17"/>
-      <c r="OD1" s="17"/>
-      <c r="OE1" s="17"/>
-      <c r="OF1" s="17"/>
-      <c r="OG1" s="17"/>
-      <c r="OH1" s="17"/>
-      <c r="OI1" s="17"/>
-      <c r="OJ1" s="17"/>
-      <c r="OK1" s="17"/>
-      <c r="OL1" s="17"/>
-      <c r="OM1" s="17"/>
-      <c r="ON1" s="17"/>
-      <c r="OO1" s="17"/>
-      <c r="OP1" s="17"/>
-      <c r="OQ1" s="17"/>
-      <c r="OR1" s="17"/>
-      <c r="OS1" s="17"/>
-      <c r="OT1" s="17"/>
-      <c r="OU1" s="17"/>
-      <c r="OV1" s="17"/>
-      <c r="OW1" s="17"/>
-      <c r="OX1" s="17"/>
-      <c r="OY1" s="17"/>
-      <c r="OZ1" s="17"/>
-      <c r="PA1" s="17"/>
-      <c r="PB1" s="17"/>
-      <c r="PC1" s="17"/>
-      <c r="PD1" s="17"/>
-      <c r="PE1" s="17"/>
-      <c r="PF1" s="17"/>
-      <c r="PG1" s="17"/>
-      <c r="PH1" s="17"/>
-      <c r="PI1" s="17"/>
-      <c r="PJ1" s="17"/>
-      <c r="PK1" s="17"/>
-      <c r="PL1" s="17"/>
-      <c r="PM1" s="17"/>
-      <c r="PN1" s="17"/>
-      <c r="PO1" s="17"/>
-      <c r="PP1" s="17"/>
-      <c r="PQ1" s="17"/>
-      <c r="PR1" s="17"/>
-      <c r="PS1" s="17"/>
-      <c r="PT1" s="17"/>
-      <c r="PU1" s="17"/>
-      <c r="PV1" s="17"/>
-      <c r="PW1" s="17"/>
-      <c r="PX1" s="17"/>
-      <c r="PY1" s="17"/>
-      <c r="PZ1" s="17"/>
-      <c r="QA1" s="17"/>
-      <c r="QB1" s="17"/>
-      <c r="QC1" s="17"/>
-      <c r="QD1" s="17"/>
-      <c r="QE1" s="17"/>
-      <c r="QF1" s="17"/>
-      <c r="QG1" s="17"/>
-      <c r="QH1" s="17"/>
-      <c r="QI1" s="17"/>
-      <c r="QJ1" s="17"/>
-      <c r="QK1" s="17"/>
-      <c r="QL1" s="17"/>
-      <c r="QM1" s="17"/>
-      <c r="QN1" s="17"/>
-      <c r="QO1" s="17"/>
-      <c r="QP1" s="17"/>
-      <c r="QQ1" s="17"/>
-      <c r="QR1" s="17"/>
-      <c r="QS1" s="17"/>
-      <c r="QT1" s="17"/>
-      <c r="QU1" s="17"/>
-      <c r="QV1" s="17"/>
-      <c r="QW1" s="17"/>
-      <c r="QX1" s="17"/>
-      <c r="QY1" s="17"/>
-      <c r="QZ1" s="17"/>
-      <c r="RA1" s="17"/>
-      <c r="RB1" s="17"/>
-      <c r="RC1" s="17"/>
-      <c r="RD1" s="17"/>
-      <c r="RE1" s="17"/>
-      <c r="RF1" s="17"/>
-      <c r="RG1" s="17"/>
-      <c r="RH1" s="17"/>
-      <c r="RI1" s="17"/>
-      <c r="RJ1" s="17"/>
-      <c r="RK1" s="17"/>
-      <c r="RL1" s="17"/>
-      <c r="RM1" s="17"/>
-      <c r="RN1" s="17"/>
-      <c r="RO1" s="17"/>
-      <c r="RP1" s="17"/>
-      <c r="RQ1" s="17"/>
-      <c r="RR1" s="17"/>
-      <c r="RS1" s="17"/>
-      <c r="RT1" s="17"/>
-      <c r="RU1" s="17"/>
-      <c r="RV1" s="17"/>
-      <c r="RW1" s="17"/>
-      <c r="RX1" s="17"/>
-      <c r="RY1" s="17"/>
-      <c r="RZ1" s="17"/>
-      <c r="SA1" s="17"/>
-      <c r="SB1" s="17"/>
-      <c r="SC1" s="17"/>
-      <c r="SD1" s="17"/>
-      <c r="SE1" s="17"/>
-      <c r="SF1" s="17"/>
-      <c r="SG1" s="17"/>
-      <c r="SH1" s="17"/>
-      <c r="SI1" s="17"/>
-      <c r="SJ1" s="17"/>
-      <c r="SK1" s="17"/>
-      <c r="SL1" s="17"/>
-      <c r="SM1" s="17"/>
-      <c r="SN1" s="17"/>
-      <c r="SO1" s="17"/>
-      <c r="SP1" s="17"/>
-      <c r="SQ1" s="17"/>
-      <c r="SR1" s="17"/>
-      <c r="SS1" s="17"/>
-      <c r="ST1" s="17"/>
-      <c r="SU1" s="17"/>
-      <c r="SV1" s="17"/>
-      <c r="SW1" s="17"/>
-      <c r="SX1" s="17"/>
-      <c r="SY1" s="17"/>
-      <c r="SZ1" s="17"/>
-      <c r="TA1" s="17"/>
-      <c r="TB1" s="17"/>
-      <c r="TC1" s="17"/>
-      <c r="TD1" s="17"/>
-      <c r="TE1" s="17"/>
-      <c r="TF1" s="17"/>
-      <c r="TG1" s="17"/>
-      <c r="TH1" s="17"/>
-      <c r="TI1" s="17"/>
-      <c r="TJ1" s="17"/>
-      <c r="TK1" s="17"/>
-      <c r="TL1" s="17"/>
-      <c r="TM1" s="17"/>
-      <c r="TN1" s="17"/>
-      <c r="TO1" s="17"/>
-      <c r="TP1" s="17"/>
-      <c r="TQ1" s="17"/>
-      <c r="TR1" s="17"/>
-      <c r="TS1" s="17"/>
-      <c r="TT1" s="17"/>
-      <c r="TU1" s="17"/>
-      <c r="TV1" s="17"/>
-      <c r="TW1" s="17"/>
-      <c r="TX1" s="17"/>
-      <c r="TY1" s="17"/>
-      <c r="TZ1" s="17"/>
-      <c r="UA1" s="17"/>
-      <c r="UB1" s="17"/>
-      <c r="UC1" s="17"/>
-      <c r="UD1" s="17"/>
-      <c r="UE1" s="17"/>
-      <c r="UF1" s="17"/>
-      <c r="UG1" s="17"/>
-      <c r="UH1" s="17"/>
-      <c r="UI1" s="17"/>
-      <c r="UJ1" s="17"/>
-      <c r="UK1" s="17"/>
-      <c r="UL1" s="17"/>
-      <c r="UM1" s="17"/>
-      <c r="UN1" s="17"/>
-      <c r="UO1" s="17"/>
-      <c r="UP1" s="17"/>
-      <c r="UQ1" s="17"/>
-      <c r="UR1" s="17"/>
-      <c r="US1" s="17"/>
-      <c r="UT1" s="17"/>
-      <c r="UU1" s="17"/>
-      <c r="UV1" s="17"/>
-      <c r="UW1" s="17"/>
-      <c r="UX1" s="17"/>
-      <c r="UY1" s="17"/>
-      <c r="UZ1" s="17"/>
-      <c r="VA1" s="17"/>
-      <c r="VB1" s="17"/>
-      <c r="VC1" s="17"/>
-      <c r="VD1" s="17"/>
-      <c r="VE1" s="17"/>
-      <c r="VF1" s="17"/>
-      <c r="VG1" s="17"/>
-      <c r="VH1" s="17"/>
-      <c r="VI1" s="17"/>
-      <c r="VJ1" s="17"/>
-      <c r="VK1" s="17"/>
-      <c r="VL1" s="17"/>
-      <c r="VM1" s="17"/>
-      <c r="VN1" s="17"/>
-      <c r="VO1" s="17"/>
-      <c r="VP1" s="17"/>
-      <c r="VQ1" s="17"/>
-      <c r="VR1" s="17"/>
-      <c r="VS1" s="17"/>
-      <c r="VT1" s="17"/>
-      <c r="VU1" s="17"/>
-      <c r="VV1" s="17"/>
-      <c r="VW1" s="17"/>
-      <c r="VX1" s="17"/>
-      <c r="VY1" s="17"/>
-      <c r="VZ1" s="17"/>
-      <c r="WA1" s="17"/>
-      <c r="WB1" s="17"/>
-      <c r="WC1" s="17"/>
-      <c r="WD1" s="17"/>
-      <c r="WE1" s="17"/>
-      <c r="WF1" s="17"/>
-      <c r="WG1" s="17"/>
-      <c r="WH1" s="17"/>
-      <c r="WI1" s="17"/>
-      <c r="WJ1" s="17"/>
-      <c r="WK1" s="17"/>
-      <c r="WL1" s="17"/>
-      <c r="WM1" s="17"/>
-      <c r="WN1" s="17"/>
-      <c r="WO1" s="17"/>
-      <c r="WP1" s="17"/>
-      <c r="WQ1" s="17"/>
-      <c r="WR1" s="17"/>
-      <c r="WS1" s="17"/>
-      <c r="WT1" s="17"/>
-      <c r="WU1" s="17"/>
-      <c r="WV1" s="17"/>
-      <c r="WW1" s="17"/>
-      <c r="WX1" s="17"/>
-      <c r="WY1" s="17"/>
-      <c r="WZ1" s="17"/>
-      <c r="XA1" s="17"/>
-      <c r="XB1" s="17"/>
-      <c r="XC1" s="17"/>
-      <c r="XD1" s="17"/>
-      <c r="XE1" s="17"/>
-      <c r="XF1" s="17"/>
-      <c r="XG1" s="17"/>
-      <c r="XH1" s="17"/>
-      <c r="XI1" s="17"/>
-      <c r="XJ1" s="17"/>
-      <c r="XK1" s="17"/>
-      <c r="XL1" s="17"/>
-      <c r="XM1" s="17"/>
-      <c r="XN1" s="17"/>
-      <c r="XO1" s="17"/>
-      <c r="XP1" s="17"/>
-      <c r="XQ1" s="17"/>
-      <c r="XR1" s="17"/>
-      <c r="XS1" s="17"/>
-      <c r="XT1" s="17"/>
-      <c r="XU1" s="17"/>
-      <c r="XV1" s="17"/>
-      <c r="XW1" s="17"/>
-      <c r="XX1" s="17"/>
-      <c r="XY1" s="17"/>
-      <c r="XZ1" s="17"/>
-      <c r="YA1" s="17"/>
-      <c r="YB1" s="17"/>
-      <c r="YC1" s="17"/>
-      <c r="YD1" s="17"/>
-      <c r="YE1" s="17"/>
-      <c r="YF1" s="17"/>
-      <c r="YG1" s="17"/>
-      <c r="YH1" s="17"/>
-      <c r="YI1" s="17"/>
-      <c r="YJ1" s="17"/>
-      <c r="YK1" s="17"/>
-      <c r="YL1" s="17"/>
-      <c r="YM1" s="17"/>
-      <c r="YN1" s="17"/>
-      <c r="YO1" s="17"/>
-      <c r="YP1" s="17"/>
-      <c r="YQ1" s="17"/>
-      <c r="YR1" s="17"/>
-      <c r="YS1" s="17"/>
-      <c r="YT1" s="17"/>
-      <c r="YU1" s="17"/>
-      <c r="YV1" s="17"/>
-      <c r="YW1" s="17"/>
-      <c r="YX1" s="17"/>
-      <c r="YY1" s="17"/>
-      <c r="YZ1" s="17"/>
-      <c r="ZA1" s="17"/>
-      <c r="ZB1" s="17"/>
-      <c r="ZC1" s="17"/>
-      <c r="ZD1" s="17"/>
-      <c r="ZE1" s="17"/>
-      <c r="ZF1" s="17"/>
-      <c r="ZG1" s="17"/>
-      <c r="ZH1" s="17"/>
-      <c r="ZI1" s="17"/>
-      <c r="ZJ1" s="17"/>
-      <c r="ZK1" s="17"/>
-      <c r="ZL1" s="17"/>
-      <c r="ZM1" s="17"/>
-      <c r="ZN1" s="17"/>
-      <c r="ZO1" s="17"/>
-      <c r="ZP1" s="17"/>
-      <c r="ZQ1" s="17"/>
-      <c r="ZR1" s="17"/>
-      <c r="ZS1" s="17"/>
-      <c r="ZT1" s="17"/>
-      <c r="ZU1" s="17"/>
-      <c r="ZV1" s="17"/>
-      <c r="ZW1" s="17"/>
-      <c r="ZX1" s="17"/>
-      <c r="ZY1" s="17"/>
-      <c r="ZZ1" s="17"/>
-      <c r="AAA1" s="17"/>
-      <c r="AAB1" s="17"/>
-      <c r="AAC1" s="17"/>
-      <c r="AAD1" s="17"/>
-      <c r="AAE1" s="17"/>
-      <c r="AAF1" s="17"/>
-      <c r="AAG1" s="17"/>
-      <c r="AAH1" s="17"/>
-      <c r="AAI1" s="17"/>
-      <c r="AAJ1" s="17"/>
-      <c r="AAK1" s="17"/>
-      <c r="AAL1" s="17"/>
-      <c r="AAM1" s="17"/>
-      <c r="AAN1" s="17"/>
-      <c r="AAO1" s="17"/>
-      <c r="AAP1" s="17"/>
-      <c r="AAQ1" s="17"/>
-      <c r="AAR1" s="17"/>
-      <c r="AAS1" s="17"/>
-      <c r="AAT1" s="17"/>
-      <c r="AAU1" s="17"/>
-      <c r="AAV1" s="17"/>
-      <c r="AAW1" s="17"/>
-      <c r="AAX1" s="17"/>
-      <c r="AAY1" s="17"/>
-      <c r="AAZ1" s="17"/>
-      <c r="ABA1" s="17"/>
-      <c r="ABB1" s="17"/>
-      <c r="ABC1" s="17"/>
-      <c r="ABD1" s="17"/>
-      <c r="ABE1" s="17"/>
-      <c r="ABF1" s="17"/>
-      <c r="ABG1" s="17"/>
-      <c r="ABH1" s="17"/>
-      <c r="ABI1" s="17"/>
-      <c r="ABJ1" s="17"/>
-      <c r="ABK1" s="17"/>
-      <c r="ABL1" s="17"/>
-      <c r="ABM1" s="17"/>
-      <c r="ABN1" s="17"/>
-      <c r="ABO1" s="17"/>
-      <c r="ABP1" s="17"/>
-      <c r="ABQ1" s="17"/>
-      <c r="ABR1" s="17"/>
-      <c r="ABS1" s="17"/>
-      <c r="ABT1" s="17"/>
-      <c r="ABU1" s="17"/>
-      <c r="ABV1" s="17"/>
-      <c r="ABW1" s="17"/>
-      <c r="ABX1" s="17"/>
-      <c r="ABY1" s="17"/>
-      <c r="ABZ1" s="17"/>
-      <c r="ACA1" s="17"/>
-      <c r="ACB1" s="17"/>
-      <c r="ACC1" s="17"/>
-      <c r="ACD1" s="17"/>
-      <c r="ACE1" s="17"/>
-      <c r="ACF1" s="17"/>
-      <c r="ACG1" s="17"/>
-      <c r="ACH1" s="17"/>
-      <c r="ACI1" s="17"/>
-      <c r="ACJ1" s="17"/>
-      <c r="ACK1" s="17"/>
-      <c r="ACL1" s="17"/>
-      <c r="ACM1" s="17"/>
-      <c r="ACN1" s="17"/>
-      <c r="ACO1" s="17"/>
-      <c r="ACP1" s="17"/>
-      <c r="ACQ1" s="17"/>
-      <c r="ACR1" s="17"/>
-      <c r="ACS1" s="17"/>
-      <c r="ACT1" s="17"/>
-      <c r="ACU1" s="17"/>
-      <c r="ACV1" s="17"/>
-      <c r="ACW1" s="17"/>
-      <c r="ACX1" s="17"/>
-      <c r="ACY1" s="17"/>
-      <c r="ACZ1" s="17"/>
-      <c r="ADA1" s="17"/>
-      <c r="ADB1" s="17"/>
-      <c r="ADC1" s="17"/>
-      <c r="ADD1" s="17"/>
-      <c r="ADE1" s="17"/>
-      <c r="ADF1" s="17"/>
-      <c r="ADG1" s="17"/>
-      <c r="ADH1" s="17"/>
-      <c r="ADI1" s="17"/>
-      <c r="ADJ1" s="17"/>
-      <c r="ADK1" s="17"/>
-      <c r="ADL1" s="17"/>
-      <c r="ADM1" s="17"/>
-      <c r="ADN1" s="17"/>
-      <c r="ADO1" s="17"/>
-      <c r="ADP1" s="17"/>
-      <c r="ADQ1" s="17"/>
-      <c r="ADR1" s="17"/>
-      <c r="ADS1" s="17"/>
-      <c r="ADT1" s="17"/>
-      <c r="ADU1" s="17"/>
-      <c r="ADV1" s="17"/>
-      <c r="ADW1" s="17"/>
-      <c r="ADX1" s="17"/>
-      <c r="ADY1" s="17"/>
-      <c r="ADZ1" s="17"/>
-      <c r="AEA1" s="17"/>
-      <c r="AEB1" s="17"/>
-      <c r="AEC1" s="17"/>
-      <c r="AED1" s="17"/>
-      <c r="AEE1" s="17"/>
-      <c r="AEF1" s="17"/>
-      <c r="AEG1" s="17"/>
-      <c r="AEH1" s="17"/>
-      <c r="AEI1" s="17"/>
-      <c r="AEJ1" s="17"/>
-      <c r="AEK1" s="17"/>
-      <c r="AEL1" s="17"/>
-      <c r="AEM1" s="17"/>
-      <c r="AEN1" s="17"/>
-      <c r="AEO1" s="17"/>
-      <c r="AEP1" s="17"/>
-      <c r="AEQ1" s="17"/>
-      <c r="AER1" s="17"/>
-      <c r="AES1" s="17"/>
-      <c r="AET1" s="17"/>
-      <c r="AEU1" s="17"/>
-      <c r="AEV1" s="17"/>
-      <c r="AEW1" s="17"/>
-      <c r="AEX1" s="17"/>
-      <c r="AEY1" s="17"/>
-      <c r="AEZ1" s="17"/>
-      <c r="AFA1" s="17"/>
-      <c r="AFB1" s="17"/>
-      <c r="AFC1" s="17"/>
-      <c r="AFD1" s="17"/>
-      <c r="AFE1" s="17"/>
-      <c r="AFF1" s="17"/>
-      <c r="AFG1" s="17"/>
-      <c r="AFH1" s="17"/>
-      <c r="AFI1" s="17"/>
-      <c r="AFJ1" s="17"/>
-      <c r="AFK1" s="17"/>
-      <c r="AFL1" s="17"/>
-      <c r="AFM1" s="17"/>
-      <c r="AFN1" s="17"/>
-      <c r="AFO1" s="17"/>
-      <c r="AFP1" s="17"/>
-      <c r="AFQ1" s="17"/>
-      <c r="AFR1" s="17"/>
-      <c r="AFS1" s="17"/>
-      <c r="AFT1" s="17"/>
-      <c r="AFU1" s="17"/>
-      <c r="AFV1" s="17"/>
-      <c r="AFW1" s="17"/>
-      <c r="AFX1" s="17"/>
-      <c r="AFY1" s="17"/>
-      <c r="AFZ1" s="17"/>
-      <c r="AGA1" s="17"/>
-      <c r="AGB1" s="17"/>
-      <c r="AGC1" s="17"/>
-      <c r="AGD1" s="17"/>
-      <c r="AGE1" s="17"/>
-      <c r="AGF1" s="17"/>
-      <c r="AGG1" s="17"/>
-      <c r="AGH1" s="17"/>
-      <c r="AGI1" s="17"/>
-      <c r="AGJ1" s="17"/>
-      <c r="AGK1" s="17"/>
-      <c r="AGL1" s="17"/>
-      <c r="AGM1" s="17"/>
-      <c r="AGN1" s="17"/>
-      <c r="AGO1" s="17"/>
-      <c r="AGP1" s="17"/>
-      <c r="AGQ1" s="17"/>
-      <c r="AGR1" s="17"/>
-      <c r="AGS1" s="17"/>
-      <c r="AGT1" s="17"/>
-      <c r="AGU1" s="17"/>
-      <c r="AGV1" s="17"/>
-      <c r="AGW1" s="17"/>
-      <c r="AGX1" s="17"/>
-      <c r="AGY1" s="17"/>
-      <c r="AGZ1" s="17"/>
-      <c r="AHA1" s="17"/>
-      <c r="AHB1" s="17"/>
-      <c r="AHC1" s="17"/>
-      <c r="AHD1" s="17"/>
-      <c r="AHE1" s="17"/>
-      <c r="AHF1" s="17"/>
-      <c r="AHG1" s="17"/>
-      <c r="AHH1" s="17"/>
-      <c r="AHI1" s="17"/>
-      <c r="AHJ1" s="17"/>
-      <c r="AHK1" s="17"/>
-      <c r="AHL1" s="17"/>
-      <c r="AHM1" s="17"/>
-      <c r="AHN1" s="17"/>
-      <c r="AHO1" s="17"/>
-      <c r="AHP1" s="17"/>
-      <c r="AHQ1" s="17"/>
-      <c r="AHR1" s="17"/>
-      <c r="AHS1" s="17"/>
-      <c r="AHT1" s="17"/>
-      <c r="AHU1" s="17"/>
-      <c r="AHV1" s="17"/>
-      <c r="AHW1" s="17"/>
-      <c r="AHX1" s="17"/>
-      <c r="AHY1" s="17"/>
-      <c r="AHZ1" s="17"/>
-      <c r="AIA1" s="17"/>
-      <c r="AIB1" s="17"/>
-      <c r="AIC1" s="17"/>
-      <c r="AID1" s="17"/>
-      <c r="AIE1" s="17"/>
-      <c r="AIF1" s="17"/>
-      <c r="AIG1" s="17"/>
-      <c r="AIH1" s="17"/>
-      <c r="AII1" s="17"/>
-      <c r="AIJ1" s="17"/>
-      <c r="AIK1" s="17"/>
-      <c r="AIL1" s="17"/>
-      <c r="AIM1" s="17"/>
-      <c r="AIN1" s="17"/>
-      <c r="AIO1" s="17"/>
-      <c r="AIP1" s="17"/>
-      <c r="AIQ1" s="17"/>
-      <c r="AIR1" s="17"/>
-      <c r="AIS1" s="17"/>
-      <c r="AIT1" s="17"/>
-      <c r="AIU1" s="17"/>
-      <c r="AIV1" s="17"/>
-      <c r="AIW1" s="17"/>
-      <c r="AIX1" s="17"/>
-      <c r="AIY1" s="17"/>
-      <c r="AIZ1" s="17"/>
-      <c r="AJA1" s="17"/>
-      <c r="AJB1" s="17"/>
-      <c r="AJC1" s="17"/>
-      <c r="AJD1" s="17"/>
-      <c r="AJE1" s="17"/>
-      <c r="AJF1" s="17"/>
-      <c r="AJG1" s="17"/>
-      <c r="AJH1" s="17"/>
-      <c r="AJI1" s="17"/>
-      <c r="AJJ1" s="17"/>
-      <c r="AJK1" s="17"/>
-      <c r="AJL1" s="17"/>
-      <c r="AJM1" s="17"/>
-      <c r="AJN1" s="17"/>
-      <c r="AJO1" s="17"/>
-      <c r="AJP1" s="17"/>
-      <c r="AJQ1" s="17"/>
-      <c r="AJR1" s="17"/>
-      <c r="AJS1" s="17"/>
-      <c r="AJT1" s="17"/>
-      <c r="AJU1" s="17"/>
-      <c r="AJV1" s="17"/>
-      <c r="AJW1" s="17"/>
-      <c r="AJX1" s="17"/>
-      <c r="AJY1" s="17"/>
-      <c r="AJZ1" s="17"/>
-      <c r="AKA1" s="17"/>
-      <c r="AKB1" s="17"/>
-      <c r="AKC1" s="17"/>
-      <c r="AKD1" s="17"/>
-      <c r="AKE1" s="17"/>
-      <c r="AKF1" s="17"/>
-      <c r="AKG1" s="17"/>
-      <c r="AKH1" s="17"/>
-      <c r="AKI1" s="17"/>
-      <c r="AKJ1" s="17"/>
-      <c r="AKK1" s="17"/>
-      <c r="AKL1" s="17"/>
-      <c r="AKM1" s="17"/>
-      <c r="AKN1" s="17"/>
-      <c r="AKO1" s="17"/>
-      <c r="AKP1" s="17"/>
-      <c r="AKQ1" s="17"/>
-      <c r="AKR1" s="17"/>
-      <c r="AKS1" s="17"/>
-      <c r="AKT1" s="17"/>
-      <c r="AKU1" s="17"/>
-      <c r="AKV1" s="17"/>
-      <c r="AKW1" s="17"/>
-      <c r="AKX1" s="17"/>
-      <c r="AKY1" s="17"/>
-      <c r="AKZ1" s="17"/>
-      <c r="ALA1" s="17"/>
-      <c r="ALB1" s="17"/>
-      <c r="ALC1" s="17"/>
-      <c r="ALD1" s="17"/>
-      <c r="ALE1" s="17"/>
-      <c r="ALF1" s="17"/>
-      <c r="ALG1" s="17"/>
-      <c r="ALH1" s="17"/>
-      <c r="ALI1" s="17"/>
-      <c r="ALJ1" s="17"/>
-      <c r="ALK1" s="17"/>
-      <c r="ALL1" s="17"/>
-      <c r="ALM1" s="17"/>
-      <c r="ALN1" s="17"/>
-      <c r="ALO1" s="17"/>
-      <c r="ALP1" s="17"/>
-      <c r="ALQ1" s="17"/>
-      <c r="ALR1" s="17"/>
-      <c r="ALS1" s="17"/>
+      <c r="IG1" s="16"/>
+      <c r="IH1" s="16"/>
+      <c r="II1" s="16"/>
+      <c r="IJ1" s="16"/>
+      <c r="IK1" s="16"/>
+      <c r="IL1" s="16"/>
+      <c r="IM1" s="16"/>
+      <c r="IN1" s="16"/>
+      <c r="IO1" s="16"/>
+      <c r="IP1" s="16"/>
+      <c r="IQ1" s="16"/>
+      <c r="IR1" s="16"/>
+      <c r="IS1" s="16"/>
+      <c r="IT1" s="16"/>
+      <c r="IU1" s="16"/>
+      <c r="IV1" s="16"/>
+      <c r="IW1" s="16"/>
+      <c r="IX1" s="16"/>
+      <c r="IY1" s="16"/>
+      <c r="IZ1" s="16"/>
+      <c r="JA1" s="16"/>
+      <c r="JB1" s="16"/>
+      <c r="JC1" s="16"/>
+      <c r="JD1" s="16"/>
+      <c r="JE1" s="16"/>
+      <c r="JF1" s="16"/>
+      <c r="JG1" s="16"/>
+      <c r="JH1" s="16"/>
+      <c r="JI1" s="16"/>
+      <c r="JJ1" s="16"/>
+      <c r="JK1" s="16"/>
+      <c r="JL1" s="16"/>
+      <c r="JM1" s="16"/>
+      <c r="JN1" s="16"/>
+      <c r="JO1" s="16"/>
+      <c r="JP1" s="16"/>
+      <c r="JQ1" s="16"/>
+      <c r="JR1" s="16"/>
+      <c r="JS1" s="16"/>
+      <c r="JT1" s="16"/>
+      <c r="JU1" s="16"/>
+      <c r="JV1" s="16"/>
+      <c r="JW1" s="16"/>
+      <c r="JX1" s="16"/>
+      <c r="JY1" s="16"/>
+      <c r="JZ1" s="16"/>
+      <c r="KA1" s="16"/>
+      <c r="KB1" s="16"/>
+      <c r="KC1" s="16"/>
+      <c r="KD1" s="16"/>
+      <c r="KE1" s="16"/>
+      <c r="KF1" s="16"/>
+      <c r="KG1" s="16"/>
+      <c r="KH1" s="16"/>
+      <c r="KI1" s="16"/>
+      <c r="KJ1" s="16"/>
+      <c r="KK1" s="16"/>
+      <c r="KL1" s="16"/>
+      <c r="KM1" s="16"/>
+      <c r="KN1" s="16"/>
+      <c r="KO1" s="16"/>
+      <c r="KP1" s="16"/>
+      <c r="KQ1" s="16"/>
+      <c r="KR1" s="16"/>
+      <c r="KS1" s="16"/>
+      <c r="KT1" s="16"/>
+      <c r="KU1" s="16"/>
+      <c r="KV1" s="16"/>
+      <c r="KW1" s="16"/>
+      <c r="KX1" s="16"/>
+      <c r="KY1" s="16"/>
+      <c r="KZ1" s="16"/>
+      <c r="LA1" s="16"/>
+      <c r="LB1" s="16"/>
+      <c r="LC1" s="16"/>
+      <c r="LD1" s="16"/>
+      <c r="LE1" s="16"/>
+      <c r="LF1" s="16"/>
+      <c r="LG1" s="16"/>
+      <c r="LH1" s="16"/>
+      <c r="LI1" s="16"/>
+      <c r="LJ1" s="16"/>
+      <c r="LK1" s="16"/>
+      <c r="LL1" s="16"/>
+      <c r="LM1" s="16"/>
+      <c r="LN1" s="16"/>
+      <c r="LO1" s="16"/>
+      <c r="LP1" s="16"/>
+      <c r="LQ1" s="16"/>
+      <c r="LR1" s="16"/>
+      <c r="LS1" s="16"/>
+      <c r="LT1" s="16"/>
+      <c r="LU1" s="16"/>
+      <c r="LV1" s="16"/>
+      <c r="LW1" s="16"/>
+      <c r="LX1" s="16"/>
+      <c r="LY1" s="16"/>
+      <c r="LZ1" s="16"/>
+      <c r="MA1" s="16"/>
+      <c r="MB1" s="16"/>
+      <c r="MC1" s="16"/>
+      <c r="MD1" s="16"/>
+      <c r="ME1" s="16"/>
+      <c r="MF1" s="16"/>
+      <c r="MG1" s="16"/>
+      <c r="MH1" s="16"/>
+      <c r="MI1" s="16"/>
+      <c r="MJ1" s="16"/>
+      <c r="MK1" s="16"/>
+      <c r="ML1" s="16"/>
+      <c r="MM1" s="16"/>
+      <c r="MN1" s="16"/>
+      <c r="MO1" s="16"/>
+      <c r="MP1" s="16"/>
+      <c r="MQ1" s="16"/>
+      <c r="MR1" s="16"/>
+      <c r="MS1" s="16"/>
+      <c r="MT1" s="16"/>
+      <c r="MU1" s="16"/>
+      <c r="MV1" s="16"/>
+      <c r="MW1" s="16"/>
+      <c r="MX1" s="16"/>
+      <c r="MY1" s="16"/>
+      <c r="MZ1" s="16"/>
+      <c r="NA1" s="16"/>
+      <c r="NB1" s="16"/>
+      <c r="NC1" s="16"/>
+      <c r="ND1" s="16"/>
+      <c r="NE1" s="16"/>
+      <c r="NF1" s="16"/>
+      <c r="NG1" s="16"/>
+      <c r="NH1" s="16"/>
+      <c r="NI1" s="16"/>
+      <c r="NJ1" s="16"/>
+      <c r="NK1" s="16"/>
+      <c r="NL1" s="16"/>
+      <c r="NM1" s="16"/>
+      <c r="NN1" s="16"/>
+      <c r="NO1" s="16"/>
+      <c r="NP1" s="16"/>
+      <c r="NQ1" s="16"/>
+      <c r="NR1" s="16"/>
+      <c r="NS1" s="16"/>
+      <c r="NT1" s="16"/>
+      <c r="NU1" s="16"/>
+      <c r="NV1" s="16"/>
+      <c r="NW1" s="16"/>
+      <c r="NX1" s="16"/>
+      <c r="NY1" s="16"/>
+      <c r="NZ1" s="16"/>
+      <c r="OA1" s="16"/>
+      <c r="OB1" s="16"/>
+      <c r="OC1" s="16"/>
+      <c r="OD1" s="16"/>
+      <c r="OE1" s="16"/>
+      <c r="OF1" s="16"/>
+      <c r="OG1" s="16"/>
+      <c r="OH1" s="16"/>
+      <c r="OI1" s="16"/>
+      <c r="OJ1" s="16"/>
+      <c r="OK1" s="16"/>
+      <c r="OL1" s="16"/>
+      <c r="OM1" s="16"/>
+      <c r="ON1" s="16"/>
+      <c r="OO1" s="16"/>
+      <c r="OP1" s="16"/>
+      <c r="OQ1" s="16"/>
+      <c r="OR1" s="16"/>
+      <c r="OS1" s="16"/>
+      <c r="OT1" s="16"/>
+      <c r="OU1" s="16"/>
+      <c r="OV1" s="16"/>
+      <c r="OW1" s="16"/>
+      <c r="OX1" s="16"/>
+      <c r="OY1" s="16"/>
+      <c r="OZ1" s="16"/>
+      <c r="PA1" s="16"/>
+      <c r="PB1" s="16"/>
+      <c r="PC1" s="16"/>
+      <c r="PD1" s="16"/>
+      <c r="PE1" s="16"/>
+      <c r="PF1" s="16"/>
+      <c r="PG1" s="16"/>
+      <c r="PH1" s="16"/>
+      <c r="PI1" s="16"/>
+      <c r="PJ1" s="16"/>
+      <c r="PK1" s="16"/>
+      <c r="PL1" s="16"/>
+      <c r="PM1" s="16"/>
+      <c r="PN1" s="16"/>
+      <c r="PO1" s="16"/>
+      <c r="PP1" s="16"/>
+      <c r="PQ1" s="16"/>
+      <c r="PR1" s="16"/>
+      <c r="PS1" s="16"/>
+      <c r="PT1" s="16"/>
+      <c r="PU1" s="16"/>
+      <c r="PV1" s="16"/>
+      <c r="PW1" s="16"/>
+      <c r="PX1" s="16"/>
+      <c r="PY1" s="16"/>
+      <c r="PZ1" s="16"/>
+      <c r="QA1" s="16"/>
+      <c r="QB1" s="16"/>
+      <c r="QC1" s="16"/>
+      <c r="QD1" s="16"/>
+      <c r="QE1" s="16"/>
+      <c r="QF1" s="16"/>
+      <c r="QG1" s="16"/>
+      <c r="QH1" s="16"/>
+      <c r="QI1" s="16"/>
+      <c r="QJ1" s="16"/>
+      <c r="QK1" s="16"/>
+      <c r="QL1" s="16"/>
+      <c r="QM1" s="16"/>
+      <c r="QN1" s="16"/>
+      <c r="QO1" s="16"/>
+      <c r="QP1" s="16"/>
+      <c r="QQ1" s="16"/>
+      <c r="QR1" s="16"/>
+      <c r="QS1" s="16"/>
+      <c r="QT1" s="16"/>
+      <c r="QU1" s="16"/>
+      <c r="QV1" s="16"/>
+      <c r="QW1" s="16"/>
+      <c r="QX1" s="16"/>
+      <c r="QY1" s="16"/>
+      <c r="QZ1" s="16"/>
+      <c r="RA1" s="16"/>
+      <c r="RB1" s="16"/>
+      <c r="RC1" s="16"/>
+      <c r="RD1" s="16"/>
+      <c r="RE1" s="16"/>
+      <c r="RF1" s="16"/>
+      <c r="RG1" s="16"/>
+      <c r="RH1" s="16"/>
+      <c r="RI1" s="16"/>
+      <c r="RJ1" s="16"/>
+      <c r="RK1" s="16"/>
+      <c r="RL1" s="16"/>
+      <c r="RM1" s="16"/>
+      <c r="RN1" s="16"/>
+      <c r="RO1" s="16"/>
+      <c r="RP1" s="16"/>
+      <c r="RQ1" s="16"/>
+      <c r="RR1" s="16"/>
+      <c r="RS1" s="16"/>
+      <c r="RT1" s="16"/>
+      <c r="RU1" s="16"/>
+      <c r="RV1" s="16"/>
+      <c r="RW1" s="16"/>
+      <c r="RX1" s="16"/>
+      <c r="RY1" s="16"/>
+      <c r="RZ1" s="16"/>
+      <c r="SA1" s="16"/>
+      <c r="SB1" s="16"/>
+      <c r="SC1" s="16"/>
+      <c r="SD1" s="16"/>
+      <c r="SE1" s="16"/>
+      <c r="SF1" s="16"/>
+      <c r="SG1" s="16"/>
+      <c r="SH1" s="16"/>
+      <c r="SI1" s="16"/>
+      <c r="SJ1" s="16"/>
+      <c r="SK1" s="16"/>
+      <c r="SL1" s="16"/>
+      <c r="SM1" s="16"/>
+      <c r="SN1" s="16"/>
+      <c r="SO1" s="16"/>
+      <c r="SP1" s="16"/>
+      <c r="SQ1" s="16"/>
+      <c r="SR1" s="16"/>
+      <c r="SS1" s="16"/>
+      <c r="ST1" s="16"/>
+      <c r="SU1" s="16"/>
+      <c r="SV1" s="16"/>
+      <c r="SW1" s="16"/>
+      <c r="SX1" s="16"/>
+      <c r="SY1" s="16"/>
+      <c r="SZ1" s="16"/>
+      <c r="TA1" s="16"/>
+      <c r="TB1" s="16"/>
+      <c r="TC1" s="16"/>
+      <c r="TD1" s="16"/>
+      <c r="TE1" s="16"/>
+      <c r="TF1" s="16"/>
+      <c r="TG1" s="16"/>
+      <c r="TH1" s="16"/>
+      <c r="TI1" s="16"/>
+      <c r="TJ1" s="16"/>
+      <c r="TK1" s="16"/>
+      <c r="TL1" s="16"/>
+      <c r="TM1" s="16"/>
+      <c r="TN1" s="16"/>
+      <c r="TO1" s="16"/>
+      <c r="TP1" s="16"/>
+      <c r="TQ1" s="16"/>
+      <c r="TR1" s="16"/>
+      <c r="TS1" s="16"/>
+      <c r="TT1" s="16"/>
+      <c r="TU1" s="16"/>
+      <c r="TV1" s="16"/>
+      <c r="TW1" s="16"/>
+      <c r="TX1" s="16"/>
+      <c r="TY1" s="16"/>
+      <c r="TZ1" s="16"/>
+      <c r="UA1" s="16"/>
+      <c r="UB1" s="16"/>
+      <c r="UC1" s="16"/>
+      <c r="UD1" s="16"/>
+      <c r="UE1" s="16"/>
+      <c r="UF1" s="16"/>
+      <c r="UG1" s="16"/>
+      <c r="UH1" s="16"/>
+      <c r="UI1" s="16"/>
+      <c r="UJ1" s="16"/>
+      <c r="UK1" s="16"/>
+      <c r="UL1" s="16"/>
+      <c r="UM1" s="16"/>
+      <c r="UN1" s="16"/>
+      <c r="UO1" s="16"/>
+      <c r="UP1" s="16"/>
+      <c r="UQ1" s="16"/>
+      <c r="UR1" s="16"/>
+      <c r="US1" s="16"/>
+      <c r="UT1" s="16"/>
+      <c r="UU1" s="16"/>
+      <c r="UV1" s="16"/>
+      <c r="UW1" s="16"/>
+      <c r="UX1" s="16"/>
+      <c r="UY1" s="16"/>
+      <c r="UZ1" s="16"/>
+      <c r="VA1" s="16"/>
+      <c r="VB1" s="16"/>
+      <c r="VC1" s="16"/>
+      <c r="VD1" s="16"/>
+      <c r="VE1" s="16"/>
+      <c r="VF1" s="16"/>
+      <c r="VG1" s="16"/>
+      <c r="VH1" s="16"/>
+      <c r="VI1" s="16"/>
+      <c r="VJ1" s="16"/>
+      <c r="VK1" s="16"/>
+      <c r="VL1" s="16"/>
+      <c r="VM1" s="16"/>
+      <c r="VN1" s="16"/>
+      <c r="VO1" s="16"/>
+      <c r="VP1" s="16"/>
+      <c r="VQ1" s="16"/>
+      <c r="VR1" s="16"/>
+      <c r="VS1" s="16"/>
+      <c r="VT1" s="16"/>
+      <c r="VU1" s="16"/>
+      <c r="VV1" s="16"/>
+      <c r="VW1" s="16"/>
+      <c r="VX1" s="16"/>
+      <c r="VY1" s="16"/>
+      <c r="VZ1" s="16"/>
+      <c r="WA1" s="16"/>
+      <c r="WB1" s="16"/>
+      <c r="WC1" s="16"/>
+      <c r="WD1" s="16"/>
+      <c r="WE1" s="16"/>
+      <c r="WF1" s="16"/>
+      <c r="WG1" s="16"/>
+      <c r="WH1" s="16"/>
+      <c r="WI1" s="16"/>
+      <c r="WJ1" s="16"/>
+      <c r="WK1" s="16"/>
+      <c r="WL1" s="16"/>
+      <c r="WM1" s="16"/>
+      <c r="WN1" s="16"/>
+      <c r="WO1" s="16"/>
+      <c r="WP1" s="16"/>
+      <c r="WQ1" s="16"/>
+      <c r="WR1" s="16"/>
+      <c r="WS1" s="16"/>
+      <c r="WT1" s="16"/>
+      <c r="WU1" s="16"/>
+      <c r="WV1" s="16"/>
+      <c r="WW1" s="16"/>
+      <c r="WX1" s="16"/>
+      <c r="WY1" s="16"/>
+      <c r="WZ1" s="16"/>
+      <c r="XA1" s="16"/>
+      <c r="XB1" s="16"/>
+      <c r="XC1" s="16"/>
+      <c r="XD1" s="16"/>
+      <c r="XE1" s="16"/>
+      <c r="XF1" s="16"/>
+      <c r="XG1" s="16"/>
+      <c r="XH1" s="16"/>
+      <c r="XI1" s="16"/>
+      <c r="XJ1" s="16"/>
+      <c r="XK1" s="16"/>
+      <c r="XL1" s="16"/>
+      <c r="XM1" s="16"/>
+      <c r="XN1" s="16"/>
+      <c r="XO1" s="16"/>
+      <c r="XP1" s="16"/>
+      <c r="XQ1" s="16"/>
+      <c r="XR1" s="16"/>
+      <c r="XS1" s="16"/>
+      <c r="XT1" s="16"/>
+      <c r="XU1" s="16"/>
+      <c r="XV1" s="16"/>
+      <c r="XW1" s="16"/>
+      <c r="XX1" s="16"/>
+      <c r="XY1" s="16"/>
+      <c r="XZ1" s="16"/>
+      <c r="YA1" s="16"/>
+      <c r="YB1" s="16"/>
+      <c r="YC1" s="16"/>
+      <c r="YD1" s="16"/>
+      <c r="YE1" s="16"/>
+      <c r="YF1" s="16"/>
+      <c r="YG1" s="16"/>
+      <c r="YH1" s="16"/>
+      <c r="YI1" s="16"/>
+      <c r="YJ1" s="16"/>
+      <c r="YK1" s="16"/>
+      <c r="YL1" s="16"/>
+      <c r="YM1" s="16"/>
+      <c r="YN1" s="16"/>
+      <c r="YO1" s="16"/>
+      <c r="YP1" s="16"/>
+      <c r="YQ1" s="16"/>
+      <c r="YR1" s="16"/>
+      <c r="YS1" s="16"/>
+      <c r="YT1" s="16"/>
+      <c r="YU1" s="16"/>
+      <c r="YV1" s="16"/>
+      <c r="YW1" s="16"/>
+      <c r="YX1" s="16"/>
+      <c r="YY1" s="16"/>
+      <c r="YZ1" s="16"/>
+      <c r="ZA1" s="16"/>
+      <c r="ZB1" s="16"/>
+      <c r="ZC1" s="16"/>
+      <c r="ZD1" s="16"/>
+      <c r="ZE1" s="16"/>
+      <c r="ZF1" s="16"/>
+      <c r="ZG1" s="16"/>
+      <c r="ZH1" s="16"/>
+      <c r="ZI1" s="16"/>
+      <c r="ZJ1" s="16"/>
+      <c r="ZK1" s="16"/>
+      <c r="ZL1" s="16"/>
+      <c r="ZM1" s="16"/>
+      <c r="ZN1" s="16"/>
+      <c r="ZO1" s="16"/>
+      <c r="ZP1" s="16"/>
+      <c r="ZQ1" s="16"/>
+      <c r="ZR1" s="16"/>
+      <c r="ZS1" s="16"/>
+      <c r="ZT1" s="16"/>
+      <c r="ZU1" s="16"/>
+      <c r="ZV1" s="16"/>
+      <c r="ZW1" s="16"/>
+      <c r="ZX1" s="16"/>
+      <c r="ZY1" s="16"/>
+      <c r="ZZ1" s="16"/>
+      <c r="AAA1" s="16"/>
+      <c r="AAB1" s="16"/>
+      <c r="AAC1" s="16"/>
+      <c r="AAD1" s="16"/>
+      <c r="AAE1" s="16"/>
+      <c r="AAF1" s="16"/>
+      <c r="AAG1" s="16"/>
+      <c r="AAH1" s="16"/>
+      <c r="AAI1" s="16"/>
+      <c r="AAJ1" s="16"/>
+      <c r="AAK1" s="16"/>
+      <c r="AAL1" s="16"/>
+      <c r="AAM1" s="16"/>
+      <c r="AAN1" s="16"/>
+      <c r="AAO1" s="16"/>
+      <c r="AAP1" s="16"/>
+      <c r="AAQ1" s="16"/>
+      <c r="AAR1" s="16"/>
+      <c r="AAS1" s="16"/>
+      <c r="AAT1" s="16"/>
+      <c r="AAU1" s="16"/>
+      <c r="AAV1" s="16"/>
+      <c r="AAW1" s="16"/>
+      <c r="AAX1" s="16"/>
+      <c r="AAY1" s="16"/>
+      <c r="AAZ1" s="16"/>
+      <c r="ABA1" s="16"/>
+      <c r="ABB1" s="16"/>
+      <c r="ABC1" s="16"/>
+      <c r="ABD1" s="16"/>
+      <c r="ABE1" s="16"/>
+      <c r="ABF1" s="16"/>
+      <c r="ABG1" s="16"/>
+      <c r="ABH1" s="16"/>
+      <c r="ABI1" s="16"/>
+      <c r="ABJ1" s="16"/>
+      <c r="ABK1" s="16"/>
+      <c r="ABL1" s="16"/>
+      <c r="ABM1" s="16"/>
+      <c r="ABN1" s="16"/>
+      <c r="ABO1" s="16"/>
+      <c r="ABP1" s="16"/>
+      <c r="ABQ1" s="16"/>
+      <c r="ABR1" s="16"/>
+      <c r="ABS1" s="16"/>
+      <c r="ABT1" s="16"/>
+      <c r="ABU1" s="16"/>
+      <c r="ABV1" s="16"/>
+      <c r="ABW1" s="16"/>
+      <c r="ABX1" s="16"/>
+      <c r="ABY1" s="16"/>
+      <c r="ABZ1" s="16"/>
+      <c r="ACA1" s="16"/>
+      <c r="ACB1" s="16"/>
+      <c r="ACC1" s="16"/>
+      <c r="ACD1" s="16"/>
+      <c r="ACE1" s="16"/>
+      <c r="ACF1" s="16"/>
+      <c r="ACG1" s="16"/>
+      <c r="ACH1" s="16"/>
+      <c r="ACI1" s="16"/>
+      <c r="ACJ1" s="16"/>
+      <c r="ACK1" s="16"/>
+      <c r="ACL1" s="16"/>
+      <c r="ACM1" s="16"/>
+      <c r="ACN1" s="16"/>
+      <c r="ACO1" s="16"/>
+      <c r="ACP1" s="16"/>
+      <c r="ACQ1" s="16"/>
+      <c r="ACR1" s="16"/>
+      <c r="ACS1" s="16"/>
+      <c r="ACT1" s="16"/>
+      <c r="ACU1" s="16"/>
+      <c r="ACV1" s="16"/>
+      <c r="ACW1" s="16"/>
+      <c r="ACX1" s="16"/>
+      <c r="ACY1" s="16"/>
+      <c r="ACZ1" s="16"/>
+      <c r="ADA1" s="16"/>
+      <c r="ADB1" s="16"/>
+      <c r="ADC1" s="16"/>
+      <c r="ADD1" s="16"/>
+      <c r="ADE1" s="16"/>
+      <c r="ADF1" s="16"/>
+      <c r="ADG1" s="16"/>
+      <c r="ADH1" s="16"/>
+      <c r="ADI1" s="16"/>
+      <c r="ADJ1" s="16"/>
+      <c r="ADK1" s="16"/>
+      <c r="ADL1" s="16"/>
+      <c r="ADM1" s="16"/>
+      <c r="ADN1" s="16"/>
+      <c r="ADO1" s="16"/>
+      <c r="ADP1" s="16"/>
+      <c r="ADQ1" s="16"/>
+      <c r="ADR1" s="16"/>
+      <c r="ADS1" s="16"/>
+      <c r="ADT1" s="16"/>
+      <c r="ADU1" s="16"/>
+      <c r="ADV1" s="16"/>
+      <c r="ADW1" s="16"/>
+      <c r="ADX1" s="16"/>
+      <c r="ADY1" s="16"/>
+      <c r="ADZ1" s="16"/>
+      <c r="AEA1" s="16"/>
+      <c r="AEB1" s="16"/>
+      <c r="AEC1" s="16"/>
+      <c r="AED1" s="16"/>
+      <c r="AEE1" s="16"/>
+      <c r="AEF1" s="16"/>
+      <c r="AEG1" s="16"/>
+      <c r="AEH1" s="16"/>
+      <c r="AEI1" s="16"/>
+      <c r="AEJ1" s="16"/>
+      <c r="AEK1" s="16"/>
+      <c r="AEL1" s="16"/>
+      <c r="AEM1" s="16"/>
+      <c r="AEN1" s="16"/>
+      <c r="AEO1" s="16"/>
+      <c r="AEP1" s="16"/>
+      <c r="AEQ1" s="16"/>
+      <c r="AER1" s="16"/>
+      <c r="AES1" s="16"/>
+      <c r="AET1" s="16"/>
+      <c r="AEU1" s="16"/>
+      <c r="AEV1" s="16"/>
+      <c r="AEW1" s="16"/>
+      <c r="AEX1" s="16"/>
+      <c r="AEY1" s="16"/>
+      <c r="AEZ1" s="16"/>
+      <c r="AFA1" s="16"/>
+      <c r="AFB1" s="16"/>
+      <c r="AFC1" s="16"/>
+      <c r="AFD1" s="16"/>
+      <c r="AFE1" s="16"/>
+      <c r="AFF1" s="16"/>
+      <c r="AFG1" s="16"/>
+      <c r="AFH1" s="16"/>
+      <c r="AFI1" s="16"/>
+      <c r="AFJ1" s="16"/>
+      <c r="AFK1" s="16"/>
+      <c r="AFL1" s="16"/>
+      <c r="AFM1" s="16"/>
+      <c r="AFN1" s="16"/>
+      <c r="AFO1" s="16"/>
+      <c r="AFP1" s="16"/>
+      <c r="AFQ1" s="16"/>
+      <c r="AFR1" s="16"/>
+      <c r="AFS1" s="16"/>
+      <c r="AFT1" s="16"/>
+      <c r="AFU1" s="16"/>
+      <c r="AFV1" s="16"/>
+      <c r="AFW1" s="16"/>
+      <c r="AFX1" s="16"/>
+      <c r="AFY1" s="16"/>
+      <c r="AFZ1" s="16"/>
+      <c r="AGA1" s="16"/>
+      <c r="AGB1" s="16"/>
+      <c r="AGC1" s="16"/>
+      <c r="AGD1" s="16"/>
+      <c r="AGE1" s="16"/>
+      <c r="AGF1" s="16"/>
+      <c r="AGG1" s="16"/>
+      <c r="AGH1" s="16"/>
+      <c r="AGI1" s="16"/>
+      <c r="AGJ1" s="16"/>
+      <c r="AGK1" s="16"/>
+      <c r="AGL1" s="16"/>
+      <c r="AGM1" s="16"/>
+      <c r="AGN1" s="16"/>
+      <c r="AGO1" s="16"/>
+      <c r="AGP1" s="16"/>
+      <c r="AGQ1" s="16"/>
+      <c r="AGR1" s="16"/>
+      <c r="AGS1" s="16"/>
+      <c r="AGT1" s="16"/>
+      <c r="AGU1" s="16"/>
+      <c r="AGV1" s="16"/>
+      <c r="AGW1" s="16"/>
+      <c r="AGX1" s="16"/>
+      <c r="AGY1" s="16"/>
+      <c r="AGZ1" s="16"/>
+      <c r="AHA1" s="16"/>
+      <c r="AHB1" s="16"/>
+      <c r="AHC1" s="16"/>
+      <c r="AHD1" s="16"/>
+      <c r="AHE1" s="16"/>
+      <c r="AHF1" s="16"/>
+      <c r="AHG1" s="16"/>
+      <c r="AHH1" s="16"/>
+      <c r="AHI1" s="16"/>
+      <c r="AHJ1" s="16"/>
+      <c r="AHK1" s="16"/>
+      <c r="AHL1" s="16"/>
+      <c r="AHM1" s="16"/>
+      <c r="AHN1" s="16"/>
+      <c r="AHO1" s="16"/>
+      <c r="AHP1" s="16"/>
+      <c r="AHQ1" s="16"/>
+      <c r="AHR1" s="16"/>
+      <c r="AHS1" s="16"/>
+      <c r="AHT1" s="16"/>
+      <c r="AHU1" s="16"/>
+      <c r="AHV1" s="16"/>
+      <c r="AHW1" s="16"/>
+      <c r="AHX1" s="16"/>
+      <c r="AHY1" s="16"/>
+      <c r="AHZ1" s="16"/>
+      <c r="AIA1" s="16"/>
+      <c r="AIB1" s="16"/>
+      <c r="AIC1" s="16"/>
+      <c r="AID1" s="16"/>
+      <c r="AIE1" s="16"/>
+      <c r="AIF1" s="16"/>
+      <c r="AIG1" s="16"/>
+      <c r="AIH1" s="16"/>
+      <c r="AII1" s="16"/>
+      <c r="AIJ1" s="16"/>
+      <c r="AIK1" s="16"/>
+      <c r="AIL1" s="16"/>
+      <c r="AIM1" s="16"/>
+      <c r="AIN1" s="16"/>
+      <c r="AIO1" s="16"/>
+      <c r="AIP1" s="16"/>
+      <c r="AIQ1" s="16"/>
+      <c r="AIR1" s="16"/>
+      <c r="AIS1" s="16"/>
+      <c r="AIT1" s="16"/>
+      <c r="AIU1" s="16"/>
+      <c r="AIV1" s="16"/>
+      <c r="AIW1" s="16"/>
+      <c r="AIX1" s="16"/>
+      <c r="AIY1" s="16"/>
+      <c r="AIZ1" s="16"/>
+      <c r="AJA1" s="16"/>
+      <c r="AJB1" s="16"/>
+      <c r="AJC1" s="16"/>
+      <c r="AJD1" s="16"/>
+      <c r="AJE1" s="16"/>
+      <c r="AJF1" s="16"/>
+      <c r="AJG1" s="16"/>
+      <c r="AJH1" s="16"/>
+      <c r="AJI1" s="16"/>
+      <c r="AJJ1" s="16"/>
+      <c r="AJK1" s="16"/>
+      <c r="AJL1" s="16"/>
+      <c r="AJM1" s="16"/>
+      <c r="AJN1" s="16"/>
+      <c r="AJO1" s="16"/>
+      <c r="AJP1" s="16"/>
+      <c r="AJQ1" s="16"/>
+      <c r="AJR1" s="16"/>
+      <c r="AJS1" s="16"/>
+      <c r="AJT1" s="16"/>
+      <c r="AJU1" s="16"/>
+      <c r="AJV1" s="16"/>
+      <c r="AJW1" s="16"/>
+      <c r="AJX1" s="16"/>
+      <c r="AJY1" s="16"/>
+      <c r="AJZ1" s="16"/>
+      <c r="AKA1" s="16"/>
+      <c r="AKB1" s="16"/>
+      <c r="AKC1" s="16"/>
+      <c r="AKD1" s="16"/>
+      <c r="AKE1" s="16"/>
+      <c r="AKF1" s="16"/>
+      <c r="AKG1" s="16"/>
+      <c r="AKH1" s="16"/>
+      <c r="AKI1" s="16"/>
+      <c r="AKJ1" s="16"/>
+      <c r="AKK1" s="16"/>
+      <c r="AKL1" s="16"/>
+      <c r="AKM1" s="16"/>
+      <c r="AKN1" s="16"/>
+      <c r="AKO1" s="16"/>
+      <c r="AKP1" s="16"/>
+      <c r="AKQ1" s="16"/>
+      <c r="AKR1" s="16"/>
+      <c r="AKS1" s="16"/>
+      <c r="AKT1" s="16"/>
+      <c r="AKU1" s="16"/>
+      <c r="AKV1" s="16"/>
+      <c r="AKW1" s="16"/>
+      <c r="AKX1" s="16"/>
+      <c r="AKY1" s="16"/>
+      <c r="AKZ1" s="16"/>
+      <c r="ALA1" s="16"/>
+      <c r="ALB1" s="16"/>
+      <c r="ALC1" s="16"/>
+      <c r="ALD1" s="16"/>
+      <c r="ALE1" s="16"/>
+      <c r="ALF1" s="16"/>
+      <c r="ALG1" s="16"/>
+      <c r="ALH1" s="16"/>
+      <c r="ALI1" s="16"/>
+      <c r="ALJ1" s="16"/>
+      <c r="ALK1" s="16"/>
+      <c r="ALL1" s="16"/>
+      <c r="ALM1" s="16"/>
+      <c r="ALN1" s="16"/>
+      <c r="ALO1" s="16"/>
+      <c r="ALP1" s="16"/>
+      <c r="ALQ1" s="16"/>
+      <c r="ALR1" s="16"/>
+      <c r="ALS1" s="16"/>
     </row>
-    <row r="2" spans="1:1024" s="13" customFormat="1" ht="192.75" customHeight="1">
+    <row r="2" spans="1:1024" s="12" customFormat="1" ht="192.75" customHeight="1">
       <c r="A2" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>24</v>
+      <c r="I2" s="9" t="s">
+        <v>40</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>25</v>
+      <c r="J2" s="9" t="s">
+        <v>45</v>
       </c>
-      <c r="D2" s="10" t="s">
-        <v>26</v>
+      <c r="K2" s="10" t="s">
+        <v>46</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>22</v>
+      <c r="L2" s="9" t="s">
+        <v>47</v>
       </c>
-      <c r="F2" s="10" t="s">
-        <v>21</v>
+      <c r="M2" s="8" t="s">
+        <v>48</v>
       </c>
-      <c r="G2" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="I2" s="10" t="s">
+      <c r="N2" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="J2" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="K2" s="11" t="s">
+      <c r="O2" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="L2" s="10" t="s">
-        <v>37</v>
+      <c r="P2" s="9" t="s">
+        <v>39</v>
       </c>
-      <c r="M2" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="N2" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="O2" s="10" t="s">
+      <c r="Q2" s="11" t="s">
         <v>50</v>
-      </c>
-      <c r="P2" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q2" s="12" t="s">
-        <v>48</v>
       </c>
       <c r="R2" s="4"/>
     </row>
     <row r="3" spans="1:1024" s="6" customFormat="1" ht="25.5">
       <c r="A3" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>23</v>
@@ -2438,37 +2986,37 @@
         <v>20</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="J3" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="L3" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="J3" s="5" t="s">
-        <v>35</v>
+      <c r="M3" s="5" t="s">
+        <v>42</v>
       </c>
-      <c r="K3" s="5" t="s">
-        <v>34</v>
+      <c r="N3" s="5" t="s">
+        <v>38</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="O3" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="M3" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>44</v>
-      </c>
       <c r="P3" s="5" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="R3" s="5"/>
       <c r="S3" s="5"/>
@@ -3571,7 +4119,7 @@
     </row>
     <row r="7" spans="1:1024" ht="12.75" customHeight="1">
       <c r="O7" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="IG7" s="2"/>
       <c r="IH7" s="2"/>
@@ -4941,7 +5489,7 @@
       <c r="AMJ44" s="3"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Yo6Wyv+DLfnP37pdqM9EEssqqkg45g58feXyK97N4RFlSTvPUn0TCnDR+ez/PHHhY2OTOSVAF2iRG99SxEns0A==" saltValue="uNM4ABMWnukLiAT7JnuJyw==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" verticalDpi="0" r:id="rId1"/>
   <headerFooter>
